--- a/Assets/10.Data/CharacterTable.xlsx
+++ b/Assets/10.Data/CharacterTable.xlsx
@@ -4430,8 +4430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4448,7 +4448,7 @@
     <col min="16" max="16" width="14.125" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.75" style="1" customWidth="1"/>
     <col min="18" max="19" width="10.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" style="1" customWidth="1"/>
     <col min="21" max="21" width="19.25" style="1" customWidth="1"/>
     <col min="22" max="22" width="10.625" style="1" customWidth="1"/>
     <col min="23" max="23" width="14.5" style="1" customWidth="1"/>
